--- a/Tasks_Timeline.xlsx
+++ b/Tasks_Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95d8353bd2503b6a/School/CS6301-SDN/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\OneDrive\School\CS6301-SDN\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{75D622FD-1A8E-4806-B180-C7D0F1DA2702}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{AF2FF3A2-0A0F-4C05-A83C-A47342F92C35}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{75D622FD-1A8E-4806-B180-C7D0F1DA2702}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{A6B55AD5-885C-4392-A612-9A4CA0C5710C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{9F971A23-FDC7-4D11-840B-EB6C2EE42B6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Steps</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>https://github.com/mininet/mininet/wiki/Introduction-to-Mininet</t>
+  </si>
+  <si>
+    <t>Write test code that allows Python and Java to talk to eachother (simple Client/Server test)</t>
+  </si>
+  <si>
+    <t>Determine how to inject "hostile" traffic into our network so the Firewall/IDS can detect it</t>
+  </si>
+  <si>
+    <t>Test Firewall/IDS with "hostile" traffic</t>
   </si>
 </sst>
 </file>
@@ -613,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA97E28-CCB6-40DE-BC60-8FC413E619F3}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,152 +695,177 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>43143</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="8">
+        <v>43148</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="6">
+        <v>43143</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="6">
+        <v>43143</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="8">
+        <v>43148</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="8">
+        <v>43148</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="8">
+        <v>43148</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8">
+        <v>43148</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4">
-        <v>43143</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -842,27 +876,30 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4">
-        <v>43145</v>
+        <v>43143</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43145</v>
+      </c>
       <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -870,32 +907,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -903,12 +937,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -916,25 +951,32 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -942,10 +984,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -955,31 +997,70 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" xr:uid="{0DE0D12A-641F-4AA5-BA9B-1A76AB99311B}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{0DE0D12A-641F-4AA5-BA9B-1A76AB99311B}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{3438D924-5487-44AD-92F8-B22F56AC5A40}"/>
     <hyperlink ref="F7" r:id="rId3" xr:uid="{EB711490-A149-4C38-A9AF-E0B85CECFAA3}"/>
     <hyperlink ref="F9" r:id="rId4" xr:uid="{6D7E6A40-01C4-40A2-9257-34DA1FBFACED}"/>
     <hyperlink ref="F8" r:id="rId5" xr:uid="{C742A906-9B40-47CB-8C7E-C8A415A3B8B5}"/>
     <hyperlink ref="F4" r:id="rId6" xr:uid="{4837D42C-3B8B-424A-BE15-CC0384F68115}"/>
-    <hyperlink ref="F15" r:id="rId7" xr:uid="{C861FB3D-0DB7-45B6-9EBA-F610F7CA3FB7}"/>
+    <hyperlink ref="F18" r:id="rId7" xr:uid="{C861FB3D-0DB7-45B6-9EBA-F610F7CA3FB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>

--- a/Tasks_Timeline.xlsx
+++ b/Tasks_Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\OneDrive\School\CS6301-SDN\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{75D622FD-1A8E-4806-B180-C7D0F1DA2702}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{A6B55AD5-885C-4392-A612-9A4CA0C5710C}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{75D622FD-1A8E-4806-B180-C7D0F1DA2702}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{7BD4DF4C-081E-44DA-A384-B8B5A6836D1E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{9F971A23-FDC7-4D11-840B-EB6C2EE42B6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Steps</t>
   </si>
@@ -72,13 +72,7 @@
     <t>Research the Template Application</t>
   </si>
   <si>
-    <t>Understand how to extract information about the flows and packet data using ONOS API</t>
-  </si>
-  <si>
     <t>http://api.onosproject.org/1.12.0/</t>
-  </si>
-  <si>
-    <t>Write Java application to extract required information from flows</t>
   </si>
   <si>
     <t>Category</t>
@@ -134,6 +128,97 @@
       </rPr>
       <t>or Pyretic</t>
     </r>
+  </si>
+  <si>
+    <t>Test each part of our project and troubleshoot as needed</t>
+  </si>
+  <si>
+    <t>https://wiki.onosproject.org/display/test/Sample+PortStatistics+Application+tutorial+based+on+template+application+tutorial</t>
+  </si>
+  <si>
+    <t>Research the Sample PortStatistics Application</t>
+  </si>
+  <si>
+    <t>https://wiki.onosproject.org/display/ONOS/Wiki+Home</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Determine what network topology(s) we will use to test</t>
+  </si>
+  <si>
+    <t>Mininet</t>
+  </si>
+  <si>
+    <t>Write Python code for creating Mininet network topology</t>
+  </si>
+  <si>
+    <t>https://github.com/mininet/mininet/wiki/Introduction-to-Mininet</t>
+  </si>
+  <si>
+    <t>Write test code that allows Python and Java to talk to eachother (simple Client/Server test)</t>
+  </si>
+  <si>
+    <t>Determine how to inject "hostile" traffic into our network so the Firewall/IDS can detect it</t>
+  </si>
+  <si>
+    <t>Test Firewall/IDS with "hostile" traffic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Write Java application to extract required information from </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> packets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Understand how to extract information about the </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and packet data using ONOS API</t>
+    </r>
+  </si>
+  <si>
+    <t>Investigate what information I can get from API that might be beneficial for a Firewall app.</t>
   </si>
   <si>
     <r>
@@ -158,44 +243,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> talking to Controller</t>
+      <t xml:space="preserve"> talking to Mininet Controller</t>
     </r>
-  </si>
-  <si>
-    <t>Test each part of our project and troubleshoot as needed</t>
-  </si>
-  <si>
-    <t>https://wiki.onosproject.org/display/test/Sample+PortStatistics+Application+tutorial+based+on+template+application+tutorial</t>
-  </si>
-  <si>
-    <t>Research the Sample PortStatistics Application</t>
-  </si>
-  <si>
-    <t>https://wiki.onosproject.org/display/ONOS/Wiki+Home</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Determine what network topology(s) we will use to test</t>
-  </si>
-  <si>
-    <t>Mininet</t>
-  </si>
-  <si>
-    <t>Write Python code for creating Mininet network topology</t>
-  </si>
-  <si>
-    <t>https://github.com/mininet/mininet/wiki/Introduction-to-Mininet</t>
-  </si>
-  <si>
-    <t>Write test code that allows Python and Java to talk to eachother (simple Client/Server test)</t>
-  </si>
-  <si>
-    <t>Determine how to inject "hostile" traffic into our network so the Firewall/IDS can detect it</t>
-  </si>
-  <si>
-    <t>Test Firewall/IDS with "hostile" traffic</t>
   </si>
 </sst>
 </file>
@@ -622,11 +671,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA97E28-CCB6-40DE-BC60-8FC413E619F3}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -642,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -662,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -681,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -696,11 +743,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A24" si="0">A3+1</f>
+        <f t="shared" ref="A4:A25" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -712,25 +759,25 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6">
         <v>43148</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -739,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -760,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -776,145 +823,152 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6">
         <v>43148</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43148</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43148</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6">
         <v>43148</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43148</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8">
+        <v>43148</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8">
-        <v>43148</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="8">
-        <v>43148</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4">
-        <v>43143</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4">
-        <v>43145</v>
+        <v>43150</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43150</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -922,10 +976,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -937,13 +991,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -951,45 +1006,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="F20" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -997,10 +1053,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -1010,10 +1066,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1023,10 +1079,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -1036,31 +1092,44 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{0DE0D12A-641F-4AA5-BA9B-1A76AB99311B}"/>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{0DE0D12A-641F-4AA5-BA9B-1A76AB99311B}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{3438D924-5487-44AD-92F8-B22F56AC5A40}"/>
     <hyperlink ref="F7" r:id="rId3" xr:uid="{EB711490-A149-4C38-A9AF-E0B85CECFAA3}"/>
     <hyperlink ref="F9" r:id="rId4" xr:uid="{6D7E6A40-01C4-40A2-9257-34DA1FBFACED}"/>
     <hyperlink ref="F8" r:id="rId5" xr:uid="{C742A906-9B40-47CB-8C7E-C8A415A3B8B5}"/>
     <hyperlink ref="F4" r:id="rId6" xr:uid="{4837D42C-3B8B-424A-BE15-CC0384F68115}"/>
-    <hyperlink ref="F18" r:id="rId7" xr:uid="{C861FB3D-0DB7-45B6-9EBA-F610F7CA3FB7}"/>
+    <hyperlink ref="F19" r:id="rId7" xr:uid="{C861FB3D-0DB7-45B6-9EBA-F610F7CA3FB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
